--- a/003.개발자/000.React/React.xlsx
+++ b/003.개발자/000.React/React.xlsx
@@ -5,18 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jooladen\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jooladen\Desktop\study_source\003.개발자\000.React\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8F0763-2815-4E51-A884-95260CD5E0AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76665214-80C3-4DDC-980C-E6DA8FFAAA51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{447ECDF2-B72D-4F41-9C4D-10BA7B3D591B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{447ECDF2-B72D-4F41-9C4D-10BA7B3D591B}"/>
   </bookViews>
   <sheets>
     <sheet name="vue vs react" sheetId="1" r:id="rId1"/>
     <sheet name="1" sheetId="2" r:id="rId2"/>
     <sheet name="2" sheetId="3" r:id="rId3"/>
     <sheet name="3" sheetId="4" r:id="rId4"/>
+    <sheet name="4컴포넌트만들기" sheetId="5" r:id="rId5"/>
+    <sheet name="5 props" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,26 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>notion  react참조</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">class vs </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>function</t>
-    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -254,6 +239,14 @@
   </si>
   <si>
     <t>이것만 해도 serve없으면 자동설치 y누름 됨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴포넌트 = 사용자정의태그</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -783,6 +776,2106 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="8258175" cy="7842532"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B50AAD4B-D904-474F-9E34-CFE2CA552C76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="276225" y="123825"/>
+          <a:ext cx="8258175" cy="7842532"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>import logo from './logo.svg';</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>import './App.css';</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>function Header(){</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  return( </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    &lt;header&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      &lt;h1&gt;&lt;a href="/"&gt;WEB&lt;/a&gt;&lt;/h1&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    &lt;/header&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  );</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>function Nav(){</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  return (</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    &lt;nav&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      &lt;ol&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        &lt;li&gt;&lt;a href="/read/1"&gt;html&lt;/a&gt;&lt;/li&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        &lt;li&gt;&lt;a href="/read/2"&gt;css&lt;/a&gt;&lt;/li&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        &lt;li&gt;&lt;a href="/read/3"&gt;js&lt;/a&gt;&lt;/li&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      &lt;/ol&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    &lt;/nav&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  );</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>function Article(){</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  return (</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    &lt;article&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      &lt;h2&gt;WELCOME&lt;/h2&gt;Hello, WEB</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    &lt;/article&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  );</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>function App() {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  return (</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    &lt;div&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      &lt;Header&gt;&lt;/Header&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      &lt;Nav&gt;&lt;/Nav&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      &lt;Article&gt;&lt;/Article&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    &lt;/div&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  );</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>export default App;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6619875" cy="14673889"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77028307-D836-C844-9061-6A7FEF2B8097}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695325" y="276225"/>
+          <a:ext cx="6619875" cy="14673889"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>import './App.css';</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>function Header(props){</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  //console.log("title &gt;&gt;&gt; ", title);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  console.log("props &gt;&gt;&gt; ", props);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  return( </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    &lt;header&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      &lt;h1&gt;&lt;a href="/"&gt;{props.title}&lt;/a&gt;&lt;/h1&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    &lt;/header&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  );</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>function Nav(props){</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  // const list = [</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  //   &lt;li&gt;&lt;a href="/read/1"&gt;html&lt;/a&gt;&lt;/li&gt;,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  //   &lt;li&gt;&lt;a href="/read/2"&gt;css&lt;/a&gt;&lt;/li&gt;,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  //   &lt;li&gt;&lt;a href="/read/3"&gt;js&lt;/a&gt;&lt;/li&gt;,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  // ]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  // console.log(props.data[0].title);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  // console.log(props.data[1].title);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  // console.log(props.data[2].title);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  const list = []</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  for(let i = 0; i &lt; props.data.length; i++){</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    //list.push(&lt;li&gt;{props.data[i].title}&lt;/li&gt;)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    let t = props.data[i]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    //console.log("t &gt;&gt;&gt; ", t);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    //list.push(&lt;li&gt;{t.title}&lt;/li&gt;)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    list.push(&lt;li key={t.id}&gt;&lt;a href={"/read/" + t.id}&gt;{t.title}&lt;/a&gt;&lt;/li&gt;)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    //console.log(list);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  return (</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    &lt;nav&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      &lt;ol&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        {list}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      &lt;/ol&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    &lt;/nav&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  );</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>function Article(p){</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  return (</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    &lt;article&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      &lt;h2&gt;{p.title}&lt;/h2&gt;{p.body}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    &lt;/article&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  );</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>function App() {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  // const topics = [</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  //   {id : 1,  title : 'html', body : 'html is ...'},</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  //   {id : 2,  title : 'css', body : 'html is ...'},</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  //   {id : 3,  title : 'javascript', body : 'javascript is ...'},</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  // ]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>자바크립트의 객체는 키에 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>""</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>를 사용안해도 되지만</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>파이썬 딕셔너리는 키에 반드시 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>""</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>를 사용해야 한다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>그래서 항상 키에는 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"" or ''</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>를 붙이면 헷갈리지 않는다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>const topics = [</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    {"id" : 1,  "title" : 'html', "body" : 'html is ...'},</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    {"id" : 2,  "title" : 'css', "body" : 'html is ...'},</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    {"id" : 3,  "title" : 'javascript', "body" : 'javascript is ...'},</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  ]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  return (</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    &lt;div&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      &lt;Header title="REACT"&gt;&lt;/Header&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      &lt;Nav data={topics}&gt;&lt;/Nav&gt; {/* </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>문자열은 위처럼</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>배열객체를 던질때는 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>{} */}</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;Article title="Welcome" body='hello, WEB'&gt;&lt;/Article&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    &lt;/div&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  );</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>export default App;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1104,28 +3197,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{349BBB23-73E9-4E59-A484-D373E1609DCB}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="F6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>3</v>
+      <c r="J6" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1147,30 +3245,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1183,7 +3281,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86AF8C12-5CFA-4632-BEFC-3DD9F920C24F}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -1194,36 +3292,36 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="9:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="J17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1231,4 +3329,36 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{948BF6E4-70DD-4860-9BB9-6D3EA88ED214}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B0ABE1-7CFC-46C5-A1ED-AE1774B042CF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/003.개발자/000.React/React.xlsx
+++ b/003.개발자/000.React/React.xlsx
@@ -8,17 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jooladen\Desktop\study_source\003.개발자\000.React\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76665214-80C3-4DDC-980C-E6DA8FFAAA51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D88A6AE-C471-4837-AB2D-76CC17447C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{447ECDF2-B72D-4F41-9C4D-10BA7B3D591B}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="7" xr2:uid="{447ECDF2-B72D-4F41-9C4D-10BA7B3D591B}"/>
   </bookViews>
   <sheets>
     <sheet name="vue vs react" sheetId="1" r:id="rId1"/>
-    <sheet name="1" sheetId="2" r:id="rId2"/>
-    <sheet name="2" sheetId="3" r:id="rId3"/>
-    <sheet name="3" sheetId="4" r:id="rId4"/>
+    <sheet name="1 수업소개" sheetId="2" r:id="rId2"/>
+    <sheet name="2 환경구축" sheetId="3" r:id="rId3"/>
+    <sheet name="3 소스수정방법" sheetId="4" r:id="rId4"/>
     <sheet name="4컴포넌트만들기" sheetId="5" r:id="rId5"/>
     <sheet name="5 props" sheetId="6" r:id="rId6"/>
+    <sheet name="6 이벤트" sheetId="7" r:id="rId7"/>
+    <sheet name="7 state" sheetId="8" r:id="rId8"/>
+    <sheet name="8 Create" sheetId="9" r:id="rId9"/>
+    <sheet name="9 Update" sheetId="10" r:id="rId10"/>
+    <sheet name="10 마치며" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>notion  react참조</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -61,13 +66,6 @@
   </si>
   <si>
     <t>https://create-react-app.dev/</t>
-  </si>
-  <si>
-    <t>node설치</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>npx create-react-app my-app</t>
   </si>
   <si>
     <t>npx create-react-app .</t>
@@ -242,11 +240,27 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>컴포넌트 = 사용자정의태그</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>컴포넌트 = 사용자정의태그</t>
+    <t>뭔가 공통된 덩어리를 함수로 만드는 느낌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. node설치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. npx create-react-app my-app</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 정의 태그 = 컴포넌트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -456,6 +470,187 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FE5D8B8-C9B1-1F4F-BE31-4BF1527A8F1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12411075" y="1304925"/>
+          <a:ext cx="3990975" cy="5010150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>컴포넌트란</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>?</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>데이터와 화면을 묶어준다</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>데이터가 바뀌면 화면은 알아서 바뀐다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>화면에 바뀔부분을 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>state</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>로 만들어두면 된다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>* </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>객체를 바꾸지 마라</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>...</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>복사해라</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>*뭔짓을 하든 결국 리턴한게 화면이다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>비구조화 할당 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>=&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>구조분해할당 문법</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>input =&gt; value onChange</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>는 세트</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -888,8 +1083,41 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>function Header(){</a:t>
-          </a:r>
+            <a:t>function Header(){ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>사용자 정의 태그는 반드시 대문자</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -1440,6 +1668,187 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>565785</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>201930</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C436225-7AC3-42F9-89C8-23B011823E9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8915400" y="640080"/>
+          <a:ext cx="3994785" cy="5109210"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>컴포넌트란</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>?</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>데이터와 화면을 묶어준다</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>데이터가 바뀌면 화면은 알아서 바뀐다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>화면에 바뀔부분을 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>state</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>로 만들어두면 된다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>* </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>객체를 바꾸지 마라</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>...</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>복사해라</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>*뭔짓을 하든 결국 리턴한게 화면이다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>비구조화 할당 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>=&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>구조분해할당 문법</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>input =&gt; value onChange</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>는 세트</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2876,6 +3285,558 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>646762</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>8817</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13CC353F-4BC0-86DB-E56E-1DE611D5C36E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7504762" cy="5666667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A545CEAD-E9C1-B590-B083-2DD7F62BD97E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6753225" y="0"/>
+          <a:ext cx="6057900" cy="5762625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>1. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>프롭을 통해서 입력된 데이터를 컴포넌트 함수가 처리해서 리턴값을 만들면</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>그 리턴값이 새루운 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>UI</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>가 된다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>2. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>프롭과 함께</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>....</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>컴포넌트 함수를 다시 실행해서 </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>새로운 리턴값을 만들어 주는 또 하나의 데이터를 </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>state</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>라 한다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>3. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>Prop</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>과 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>State </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>모두 값이 변경되면</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>새로운 리턴값을 만들어서 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>UI</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>를 바꾼다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>4.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>Prop vs State</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>컴포넌트를 사용하는 외부자를 위한 데이터</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>컴포넌트를 만드는 내부자를 위한 데이터 </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>useState</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>변수가 변경되면</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>const [mode, setMode]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t> = useState('WELCOME')</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>WELCOME</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t> =&gt; READ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>로 변경</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>.....setMode('READ')</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>useState</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>를 감싼 함수가 다시 호출된다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>.</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26B8C76A-51CA-1FEC-7E14-2711126C8303}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10355580" y="670560"/>
+          <a:ext cx="4411980" cy="4884420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>컴포넌트란</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>?</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>데이터와 화면을 묶어준다</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>데이터가 바뀌면 화면은 알아서 바뀐다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>화면에 바뀔부분을 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>state</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>로 만들어두면 된다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>* </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>객체를 바꾸지 마라</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>...</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>복사해라</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>*뭔짓을 하든 결국 리턴한게 화면이다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>비구조화 할당 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>=&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>구조분해할당 문법</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>input =&gt; value onChange</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>는 세트</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>684428</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>56514</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F8646D6-4A55-4949-AA12-0524EB94D65E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="209550"/>
+          <a:ext cx="10971428" cy="5085714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3195,19 +4156,45 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B470C3C0-C946-4431-B7D0-9149D853A00B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F0607D4-21F0-487A-AF7F-15C1A0E9D829}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{349BBB23-73E9-4E59-A484-D373E1609DCB}">
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -3223,7 +4210,7 @@
         <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -3238,7 +4225,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3255,20 +4242,20 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -3292,36 +4279,36 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="9:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="J17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -3333,10 +4320,67 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{948BF6E4-70DD-4860-9BB9-6D3EA88ED214}">
+  <dimension ref="N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B0ABE1-7CFC-46C5-A1ED-AE1774B042CF}">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4887D77-4972-4BDC-ABF0-58279357AFAA}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView topLeftCell="A4" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2813FAA4-6424-43AE-AAC7-C9151DA2DA40}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3347,11 +4391,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B0ABE1-7CFC-46C5-A1ED-AE1774B042CF}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C0DB6B-C865-430D-9252-35365DBE9696}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
